--- a/envo/document/list.xlsx
+++ b/envo/document/list.xlsx
@@ -16,78 +16,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>vegetable</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>bed room</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>living room</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>traffic</t>
-  </si>
-  <si>
-    <t>airport</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>theater</t>
-  </si>
-  <si>
-    <t>cafe</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>fashion</t>
-  </si>
-  <si>
-    <t>make up</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>food&amp;drink</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Human body</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Bed room</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Living room</t>
+  </si>
+  <si>
+    <t>Bathroom</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Fire fighting</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postal</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Science lab</t>
+  </si>
+  <si>
+    <t>School subjects</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Occupations</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Musical Instruments</t>
+  </si>
+  <si>
+    <t>Theater</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Make up</t>
   </si>
 </sst>
 </file>
@@ -419,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -447,111 +513,222 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/envo/document/list.xlsx
+++ b/envo/document/list.xlsx
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,217 +513,217 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/list.xlsx
+++ b/envo/document/list.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,217 +513,217 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/list.xlsx
+++ b/envo/document/list.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,132 +548,132 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -688,42 +688,42 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/list.xlsx
+++ b/envo/document/list.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/envo/document/list.xlsx
+++ b/envo/document/list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Animal</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Medical</t>
   </si>
   <si>
-    <t>Fire fighting</t>
-  </si>
-  <si>
     <t>Law</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Beach</t>
   </si>
   <si>
-    <t>Park</t>
-  </si>
-  <si>
     <t>Sports</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>Theater</t>
-  </si>
-  <si>
-    <t>Electronics</t>
   </si>
   <si>
     <t>Cafe</t>
@@ -485,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,182 +539,167 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
